--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1279.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1279.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8500244554500198</v>
+        <v>1.14144504070282</v>
       </c>
       <c r="B1">
-        <v>1.550610271051551</v>
+        <v>2.219400644302368</v>
       </c>
       <c r="C1">
-        <v>5.356119286846633</v>
+        <v>10.84332275390625</v>
       </c>
       <c r="D1">
-        <v>3.683804394569253</v>
+        <v>2.360852241516113</v>
       </c>
       <c r="E1">
-        <v>1.488652832893214</v>
+        <v>1.275194048881531</v>
       </c>
     </row>
   </sheetData>
